--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.09548509381111</v>
+        <v>88.48668632116713</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.69827039855336</v>
+        <v>121.0713879816585</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.32847055703201</v>
+        <v>109.5165046374809</v>
       </c>
       <c r="AD2" t="n">
-        <v>64095.48509381111</v>
+        <v>88486.68632116713</v>
       </c>
       <c r="AE2" t="n">
-        <v>87698.27039855336</v>
+        <v>121071.3879816585</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.964018347193361e-06</v>
+        <v>7.334471779508986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.834635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>79328.47055703201</v>
+        <v>109516.5046374809</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.22689293924154</v>
+        <v>84.44750196600536</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.40509194243337</v>
+        <v>115.5447977506916</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.54046562373982</v>
+        <v>104.5173644215377</v>
       </c>
       <c r="AD3" t="n">
-        <v>60226.89293924154</v>
+        <v>84447.50196600537</v>
       </c>
       <c r="AE3" t="n">
-        <v>82405.09194243337</v>
+        <v>115544.7977506916</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.486844793864291e-06</v>
+        <v>8.301837589357961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.385416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>74540.46562373982</v>
+        <v>104517.3644215377</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.66296047825317</v>
+        <v>82.01979254309512</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.26525055347945</v>
+        <v>112.2230986152867</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.6048476936607</v>
+        <v>101.5126835895807</v>
       </c>
       <c r="AD2" t="n">
-        <v>58662.96047825317</v>
+        <v>82019.79254309511</v>
       </c>
       <c r="AE2" t="n">
-        <v>80265.25055347945</v>
+        <v>112223.0986152867</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.562860692362493e-06</v>
+        <v>8.697516676878161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.444010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72604.8476936607</v>
+        <v>101512.6835895807</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.58359049095603</v>
+        <v>80.94042255579797</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.78840891841713</v>
+        <v>110.7462569802244</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.26895375148803</v>
+        <v>100.176789647408</v>
       </c>
       <c r="AD3" t="n">
-        <v>57583.59049095603</v>
+        <v>80940.42255579797</v>
       </c>
       <c r="AE3" t="n">
-        <v>78788.40891841713</v>
+        <v>110746.2569802244</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.728167384042021e-06</v>
+        <v>9.012616743397576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.326822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>71268.95375148802</v>
+        <v>100176.789647408</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.42108903171192</v>
+        <v>60.8846210314537</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.98835843462113</v>
+        <v>83.30502453511311</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.40420633140516</v>
+        <v>75.35450991283781</v>
       </c>
       <c r="AD2" t="n">
-        <v>50421.08903171191</v>
+        <v>60884.62103145369</v>
       </c>
       <c r="AE2" t="n">
-        <v>68988.35843462113</v>
+        <v>83305.0245351131</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.3401264680075e-06</v>
+        <v>1.137307185008993e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.287760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>62404.20633140516</v>
+        <v>75354.50991283781</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.96484475659401</v>
+        <v>63.93673031134526</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.4688372399854</v>
+        <v>87.48105510141697</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.55251312446924</v>
+        <v>79.13198598299068</v>
       </c>
       <c r="AD2" t="n">
-        <v>52964.84475659402</v>
+        <v>63936.73031134526</v>
       </c>
       <c r="AE2" t="n">
-        <v>72468.8372399854</v>
+        <v>87481.05510141698</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180027083360262e-06</v>
+        <v>1.051724587859539e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>65552.51312446925</v>
+        <v>79131.98598299068</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.55334241234234</v>
+        <v>68.47572680573685</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.43282511083558</v>
+        <v>93.6915103514331</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.09256952132733</v>
+        <v>84.7497241003759</v>
       </c>
       <c r="AD2" t="n">
-        <v>48553.34241234234</v>
+        <v>68475.72680573685</v>
       </c>
       <c r="AE2" t="n">
-        <v>66432.82511083558</v>
+        <v>93691.5103514331</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.340659515834825e-06</v>
+        <v>1.189260558256537e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.411458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>60092.56952132733</v>
+        <v>84749.7241003759</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.6840776198161</v>
+        <v>83.43853827499946</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.66238807507408</v>
+        <v>114.1642891163216</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.86864437108962</v>
+        <v>103.2686095936754</v>
       </c>
       <c r="AD2" t="n">
-        <v>59684.0776198161</v>
+        <v>83438.53827499946</v>
       </c>
       <c r="AE2" t="n">
-        <v>81662.38807507408</v>
+        <v>114164.2891163216</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.445130749892899e-06</v>
+        <v>8.404691724175643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.502604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>73868.64437108961</v>
+        <v>103268.6095936754</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.32251369088022</v>
+        <v>81.90638214547138</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.79943623954378</v>
+        <v>112.0679255059444</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.18349004407241</v>
+        <v>101.3723199840072</v>
       </c>
       <c r="AD3" t="n">
-        <v>58322.51369088022</v>
+        <v>81906.38214547138</v>
       </c>
       <c r="AE3" t="n">
-        <v>79799.43623954378</v>
+        <v>112067.9255059444</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.664134063988151e-06</v>
+        <v>8.818775233774936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.33984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>72183.49004407242</v>
+        <v>101372.3199840072</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.60808578137576</v>
+        <v>67.20726375097304</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.13948328656835</v>
+        <v>91.95594323926564</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.92266242555112</v>
+        <v>83.17979707750943</v>
       </c>
       <c r="AD2" t="n">
-        <v>47608.08578137576</v>
+        <v>67207.26375097304</v>
       </c>
       <c r="AE2" t="n">
-        <v>65139.48328656836</v>
+        <v>91955.94323926563</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.24316087787795e-06</v>
+        <v>1.202029628400392e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.5546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>58922.66242555112</v>
+        <v>83179.79707750943</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.18664317138656</v>
+        <v>66.58202334659445</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.50879984993126</v>
+        <v>91.1004617343354</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.30234596953719</v>
+        <v>82.40596152673362</v>
       </c>
       <c r="AD2" t="n">
-        <v>55186.64317138656</v>
+        <v>66582.02334659445</v>
       </c>
       <c r="AE2" t="n">
-        <v>75508.79984993127</v>
+        <v>91100.4617343354</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.999824890084476e-06</v>
+        <v>9.799587687314675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>68302.34596953719</v>
+        <v>82405.96152673362</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.23125703227296</v>
+        <v>66.62663720748084</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.56984250262066</v>
+        <v>91.16150438702478</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.3575627971278</v>
+        <v>82.46117835432425</v>
       </c>
       <c r="AD3" t="n">
-        <v>55231.25703227296</v>
+        <v>66626.63720748085</v>
       </c>
       <c r="AE3" t="n">
-        <v>75569.84250262065</v>
+        <v>91161.50438702478</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.999003904860873e-06</v>
+        <v>9.797978567622375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>68357.5627971278</v>
+        <v>82461.17835432425</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.16498823294224</v>
+        <v>81.28615056435886</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.58390295846038</v>
+        <v>111.2192972939805</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.9885269568327</v>
+        <v>100.6046836575356</v>
       </c>
       <c r="AD2" t="n">
-        <v>58164.98823294223</v>
+        <v>81286.15056435886</v>
       </c>
       <c r="AE2" t="n">
-        <v>79583.90295846038</v>
+        <v>111219.2972939805</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.59486584512384e-06</v>
+        <v>8.834562718294184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.450520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71988.52695683271</v>
+        <v>100604.6836575356</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.71809008662022</v>
+        <v>68.36405686117567</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.60419308202246</v>
+        <v>93.53871860675432</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.19775781246112</v>
+        <v>84.61151458536469</v>
       </c>
       <c r="AD3" t="n">
-        <v>56718.09008662021</v>
+        <v>68364.05686117568</v>
       </c>
       <c r="AE3" t="n">
-        <v>77604.19308202247</v>
+        <v>93538.71860675432</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.846083013201708e-06</v>
+        <v>9.317578741417349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.274739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>70197.75781246112</v>
+        <v>84611.51458536468</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.5761899698852</v>
+        <v>86.76190084862395</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.6195037834286</v>
+        <v>118.7114604059614</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.44809851008682</v>
+        <v>107.3818052374284</v>
       </c>
       <c r="AD2" t="n">
-        <v>62576.1899698852</v>
+        <v>86761.90084862395</v>
       </c>
       <c r="AE2" t="n">
-        <v>85619.5037834286</v>
+        <v>118711.4604059614</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.111512166436841e-06</v>
+        <v>7.659435322575807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.723958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77448.09851008683</v>
+        <v>107381.8052374284</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.64973862483907</v>
+        <v>83.66485730298562</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.61540394721698</v>
+        <v>114.4739487949029</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.82614434245257</v>
+        <v>103.5487157871431</v>
       </c>
       <c r="AD3" t="n">
-        <v>59649.73862483907</v>
+        <v>83664.85730298562</v>
       </c>
       <c r="AE3" t="n">
-        <v>81615.40394721698</v>
+        <v>114473.9487949029</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.526806681711758e-06</v>
+        <v>8.433097505928991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.385416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>73826.14434245256</v>
+        <v>103548.7157871431</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.82674830720161</v>
+        <v>64.94732130486155</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.64813170242712</v>
+        <v>88.86379028287332</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.61925737856609</v>
+        <v>80.38275485941027</v>
       </c>
       <c r="AD2" t="n">
-        <v>53826.74830720161</v>
+        <v>64947.32130486154</v>
       </c>
       <c r="AE2" t="n">
-        <v>73648.13170242713</v>
+        <v>88863.79028287332</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.099822861928906e-06</v>
+        <v>1.022258143752326e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.248697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>66619.25737856609</v>
+        <v>80382.75485941027</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.33227518802643</v>
+        <v>61.97761370344937</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.23508353238617</v>
+        <v>84.80050532837038</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.53194573562956</v>
+        <v>76.70726411810755</v>
       </c>
       <c r="AD2" t="n">
-        <v>51332.27518802643</v>
+        <v>61977.61370344937</v>
       </c>
       <c r="AE2" t="n">
-        <v>70235.08353238617</v>
+        <v>84800.50532837037</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.279712148185133e-06</v>
+        <v>1.104548799620307e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.268229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>63531.94573562956</v>
+        <v>76707.26411810755</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.55579595790053</v>
+        <v>69.91597416309605</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.80442627699678</v>
+        <v>95.66212032499998</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.33326699724487</v>
+        <v>86.53226182383467</v>
       </c>
       <c r="AD2" t="n">
-        <v>49555.79595790053</v>
+        <v>69915.97416309605</v>
       </c>
       <c r="AE2" t="n">
-        <v>67804.42627699678</v>
+        <v>95662.12032499998</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.337919053583533e-06</v>
+        <v>1.160386613366124e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.346354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>61333.26699724487</v>
+        <v>86532.26182383468</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.64896694258508</v>
+        <v>65.67372162466596</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.82717457799873</v>
+        <v>89.85768324694961</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.73559861829013</v>
+        <v>81.28179207393298</v>
       </c>
       <c r="AD2" t="n">
-        <v>46648.96694258507</v>
+        <v>65673.72162466595</v>
       </c>
       <c r="AE2" t="n">
-        <v>63827.17457799873</v>
+        <v>89857.6832469496</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.003731525418521e-06</v>
+        <v>1.190151035143836e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>57735.59861829013</v>
+        <v>81281.79207393297</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.21419196879624</v>
+        <v>67.73753777850069</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.91473744680003</v>
+        <v>92.68148755776765</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.57410285540705</v>
+        <v>83.83609646456169</v>
       </c>
       <c r="AD2" t="n">
-        <v>56214.19196879624</v>
+        <v>67737.5377785007</v>
       </c>
       <c r="AE2" t="n">
-        <v>76914.73744680003</v>
+        <v>92681.48755776766</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.865976495853119e-06</v>
+        <v>9.442807885178476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>69574.10285540705</v>
+        <v>83836.09646456169</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.98531472067067</v>
+        <v>67.50866053037512</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.60157749856323</v>
+        <v>92.36832760953085</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.29083045310711</v>
+        <v>83.55282406226176</v>
       </c>
       <c r="AD3" t="n">
-        <v>55985.31472067066</v>
+        <v>67508.66053037513</v>
       </c>
       <c r="AE3" t="n">
-        <v>76601.57749856323</v>
+        <v>92368.32760953085</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.918636873918535e-06</v>
+        <v>9.544999466592068e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.26171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>69290.8304531071</v>
+        <v>83552.82406226176</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.93326778025391</v>
+        <v>84.90692918850252</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.37158516296461</v>
+        <v>116.1734063450105</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.41471808778562</v>
+        <v>105.0859794938727</v>
       </c>
       <c r="AD2" t="n">
-        <v>60933.26778025391</v>
+        <v>84906.92918850252</v>
       </c>
       <c r="AE2" t="n">
-        <v>83371.58516296461</v>
+        <v>116173.4063450105</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.303426813940142e-06</v>
+        <v>8.074916632798786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>75414.71808778562</v>
+        <v>105085.9794938727</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.87688733188654</v>
+        <v>82.67995653954296</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.55795471240717</v>
+        <v>113.1263641196063</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.86961657847334</v>
+        <v>102.3297427019094</v>
       </c>
       <c r="AD3" t="n">
-        <v>58876.88733188654</v>
+        <v>82679.95653954295</v>
       </c>
       <c r="AE3" t="n">
-        <v>80557.95471240717</v>
+        <v>113126.3641196063</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.621017373641883e-06</v>
+        <v>8.670841091104477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.33984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>72869.61657847335</v>
+        <v>102329.7427019094</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.04793562215389</v>
+        <v>73.28307020259983</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.31901406172602</v>
+        <v>100.2691296720402</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.13067307059214</v>
+        <v>90.69958466477308</v>
       </c>
       <c r="AD2" t="n">
-        <v>55047.93562215388</v>
+        <v>73283.07020259983</v>
       </c>
       <c r="AE2" t="n">
-        <v>75319.01406172602</v>
+        <v>100269.1296720402</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.448547006643376e-06</v>
+        <v>1.112547846546616e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.459635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68130.67307059214</v>
+        <v>90699.58466477308</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.15784787586828</v>
+        <v>62.9718843587621</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.3646685055873</v>
+        <v>86.1609103030941</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.55372470437119</v>
+        <v>77.93783395138445</v>
       </c>
       <c r="AD2" t="n">
-        <v>52157.84787586828</v>
+        <v>62971.8843587621</v>
       </c>
       <c r="AE2" t="n">
-        <v>71364.66850558731</v>
+        <v>86160.9103030941</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.239857694837676e-06</v>
+        <v>1.079035227387765e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.248697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>64553.7247043712</v>
+        <v>77937.83395138445</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.5627961626161</v>
+        <v>65.82419299994054</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.65522485034435</v>
+        <v>90.06356482092876</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.53023496991052</v>
+        <v>81.46802459944823</v>
       </c>
       <c r="AD2" t="n">
-        <v>54562.7961626161</v>
+        <v>65824.19299994054</v>
       </c>
       <c r="AE2" t="n">
-        <v>74655.22485034436</v>
+        <v>90063.56482092876</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.026923866004992e-06</v>
+        <v>9.959261694470997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67530.23496991053</v>
+        <v>81468.02459944822</v>
       </c>
     </row>
   </sheetData>
